--- a/data.xlsx
+++ b/data.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1139"/>
+  <dimension ref="A1:K1140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1130" workbookViewId="0">
       <selection activeCell="A1139" sqref="A1139:XFD1143"/>
@@ -44910,6 +44910,45 @@
         <v>65</v>
       </c>
     </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>ATC</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Sumit N</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>167</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>95</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>90</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1140"/>
+  <dimension ref="A1:K1141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1130" workbookViewId="0">
       <selection activeCell="A1139" sqref="A1139:XFD1143"/>
@@ -44949,6 +44949,45 @@
         <v>50</v>
       </c>
     </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Mangesh N</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>168</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>60</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>60</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,8 +27,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -80,13 +79,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -459,16 +461,16 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1141"/>
+  <dimension ref="A1:K1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1130" workbookViewId="0">
-      <selection activeCell="A1139" sqref="A1139:XFD1143"/>
+    <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
+      <selection activeCell="M1134" sqref="M1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13.5546875" bestFit="1" customWidth="1" min="1" max="2"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="4" min="3" max="11"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="3" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -528,7 +530,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -567,7 +569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -606,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -645,7 +647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -684,7 +686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -723,7 +725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>GK</t>
@@ -762,7 +764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>GK</t>
@@ -801,7 +803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>GK</t>
@@ -840,7 +842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>MID</t>
@@ -879,7 +881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>MID</t>
@@ -918,7 +920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>MID</t>
@@ -957,7 +959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
           <t>MID</t>
@@ -996,7 +998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>MID</t>
@@ -1035,7 +1037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>MID</t>
@@ -1074,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>DEF</t>
@@ -1113,7 +1115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>DEF</t>
@@ -1152,7 +1154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>DEF</t>
@@ -1191,7 +1193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" ht="19.5" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>DEF</t>
@@ -44481,7 +44483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1129">
+    <row r="1129" ht="18.75" customHeight="1">
       <c r="A1129" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44492,35 +44494,35 @@
           <t>Nalin P</t>
         </is>
       </c>
-      <c r="C1129" t="n">
+      <c r="C1129" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1129" t="n">
+      <c r="D1129" s="4" t="n">
         <v>158</v>
       </c>
-      <c r="E1129" t="n">
+      <c r="E1129" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="F1129" t="n">
+      <c r="F1129" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="G1129" t="n">
+      <c r="G1129" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="H1129" t="n">
+      <c r="H1129" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="I1129" t="n">
+      <c r="I1129" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="J1129" t="n">
+      <c r="J1129" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="K1129" t="n">
+      <c r="K1129" s="4" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="1130">
+    <row r="1130" ht="18.75" customHeight="1">
       <c r="A1130" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44531,35 +44533,35 @@
           <t>Sumit N</t>
         </is>
       </c>
-      <c r="C1130" t="n">
+      <c r="C1130" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1130" t="n">
+      <c r="D1130" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="E1130" t="n">
+      <c r="E1130" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F1130" t="n">
+      <c r="F1130" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="G1130" t="n">
+      <c r="G1130" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="H1130" t="n">
+      <c r="H1130" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="I1130" t="n">
+      <c r="I1130" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="J1130" t="n">
+      <c r="J1130" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1130" t="n">
+      <c r="K1130" s="4" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="1131">
+    <row r="1131" ht="18.75" customHeight="1">
       <c r="A1131" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44570,35 +44572,35 @@
           <t>Nalin P</t>
         </is>
       </c>
-      <c r="C1131" t="n">
+      <c r="C1131" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1131" t="n">
+      <c r="D1131" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="E1131" t="n">
+      <c r="E1131" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="F1131" t="n">
+      <c r="F1131" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="G1131" t="n">
+      <c r="G1131" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="H1131" t="n">
+      <c r="H1131" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="I1131" t="n">
+      <c r="I1131" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="J1131" t="n">
+      <c r="J1131" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="K1131" t="n">
+      <c r="K1131" s="4" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="1132">
+    <row r="1132" ht="18.75" customHeight="1">
       <c r="A1132" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44609,35 +44611,35 @@
           <t>Sumit N</t>
         </is>
       </c>
-      <c r="C1132" t="n">
+      <c r="C1132" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1132" t="n">
+      <c r="D1132" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="E1132" t="n">
+      <c r="E1132" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F1132" t="n">
+      <c r="F1132" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G1132" t="n">
+      <c r="G1132" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H1132" t="n">
+      <c r="H1132" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="I1132" t="n">
+      <c r="I1132" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J1132" t="n">
+      <c r="J1132" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="K1132" t="n">
+      <c r="K1132" s="4" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="1133">
+    <row r="1133" ht="18.75" customHeight="1">
       <c r="A1133" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44648,35 +44650,35 @@
           <t>Chetan M</t>
         </is>
       </c>
-      <c r="C1133" t="n">
+      <c r="C1133" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D1133" t="n">
+      <c r="D1133" s="4" t="n">
         <v>172</v>
       </c>
-      <c r="E1133" t="n">
+      <c r="E1133" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="F1133" t="n">
+      <c r="F1133" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="G1133" t="n">
+      <c r="G1133" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H1133" t="n">
+      <c r="H1133" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="I1133" t="n">
+      <c r="I1133" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J1133" t="n">
+      <c r="J1133" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1133" t="n">
+      <c r="K1133" s="4" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="1134">
+    <row r="1134" ht="18.75" customHeight="1">
       <c r="A1134" t="inlineStr">
         <is>
           <t>GK</t>
@@ -44687,35 +44689,35 @@
           <t>Ashish A</t>
         </is>
       </c>
-      <c r="C1134" t="n">
+      <c r="C1134" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="D1134" t="n">
+      <c r="D1134" s="4" t="n">
         <v>175</v>
       </c>
-      <c r="E1134" t="n">
+      <c r="E1134" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="F1134" t="n">
+      <c r="F1134" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="G1134" t="n">
+      <c r="G1134" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="H1134" t="n">
+      <c r="H1134" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="I1134" t="n">
+      <c r="I1134" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="J1134" t="n">
+      <c r="J1134" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1134" t="n">
+      <c r="K1134" s="4" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="1135">
+    <row r="1135" ht="18.75" customHeight="1">
       <c r="A1135" t="inlineStr">
         <is>
           <t>MID</t>
@@ -44726,35 +44728,35 @@
           <t>Mangesh N</t>
         </is>
       </c>
-      <c r="C1135" t="n">
+      <c r="C1135" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="D1135" t="n">
+      <c r="D1135" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="E1135" t="n">
+      <c r="E1135" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="F1135" t="n">
+      <c r="F1135" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="G1135" t="n">
+      <c r="G1135" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="H1135" t="n">
+      <c r="H1135" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="I1135" t="n">
+      <c r="I1135" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="J1135" t="n">
+      <c r="J1135" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="K1135" t="n">
+      <c r="K1135" s="4" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="1136">
+    <row r="1136" ht="18.75" customHeight="1">
       <c r="A1136" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44765,35 +44767,35 @@
           <t>Sumit N</t>
         </is>
       </c>
-      <c r="C1136" t="n">
+      <c r="C1136" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1136" t="n">
+      <c r="D1136" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="E1136" t="n">
+      <c r="E1136" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F1136" t="n">
+      <c r="F1136" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="G1136" t="n">
+      <c r="G1136" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="H1136" t="n">
+      <c r="H1136" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="I1136" t="n">
+      <c r="I1136" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="J1136" t="n">
+      <c r="J1136" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1136" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1137">
+      <c r="K1136" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1137" ht="18.75" customHeight="1">
       <c r="A1137" t="inlineStr">
         <is>
           <t>MID</t>
@@ -44804,35 +44806,35 @@
           <t>Moin S</t>
         </is>
       </c>
-      <c r="C1137" t="n">
+      <c r="C1137" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1137" t="n">
+      <c r="D1137" s="4" t="n">
         <v>164</v>
       </c>
-      <c r="E1137" t="n">
+      <c r="E1137" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="F1137" t="n">
+      <c r="F1137" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="G1137" t="n">
+      <c r="G1137" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="H1137" t="n">
+      <c r="H1137" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="I1137" t="n">
+      <c r="I1137" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="J1137" t="n">
+      <c r="J1137" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1137" t="n">
+      <c r="K1137" s="4" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="1138">
+    <row r="1138" ht="18.75" customHeight="1">
       <c r="A1138" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44843,35 +44845,35 @@
           <t>Sumit N</t>
         </is>
       </c>
-      <c r="C1138" t="n">
+      <c r="C1138" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1138" t="n">
+      <c r="D1138" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="E1138" t="n">
+      <c r="E1138" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F1138" t="n">
+      <c r="F1138" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="G1138" t="n">
+      <c r="G1138" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="H1138" t="n">
+      <c r="H1138" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="I1138" t="n">
+      <c r="I1138" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="J1138" t="n">
+      <c r="J1138" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="K1138" t="n">
+      <c r="K1138" s="4" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="1139">
+    <row r="1139" ht="18.75" customHeight="1">
       <c r="A1139" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44882,35 +44884,35 @@
           <t>Sumit N</t>
         </is>
       </c>
-      <c r="C1139" t="n">
+      <c r="C1139" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1139" t="n">
+      <c r="D1139" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="E1139" t="n">
+      <c r="E1139" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F1139" t="n">
+      <c r="F1139" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="G1139" t="n">
+      <c r="G1139" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="H1139" t="n">
+      <c r="H1139" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="I1139" t="n">
+      <c r="I1139" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="J1139" t="n">
+      <c r="J1139" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1139" t="n">
+      <c r="K1139" s="4" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="1140">
+    <row r="1140" ht="18.75" customHeight="1">
       <c r="A1140" t="inlineStr">
         <is>
           <t>ATC</t>
@@ -44921,35 +44923,35 @@
           <t>Sumit N</t>
         </is>
       </c>
-      <c r="C1140" t="n">
+      <c r="C1140" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D1140" t="n">
+      <c r="D1140" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="E1140" t="n">
+      <c r="E1140" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F1140" t="n">
+      <c r="F1140" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="G1140" t="n">
+      <c r="G1140" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="H1140" t="n">
+      <c r="H1140" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="I1140" t="n">
+      <c r="I1140" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="J1140" t="n">
+      <c r="J1140" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K1140" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1141">
+      <c r="K1140" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1141" ht="18.75" customHeight="1">
       <c r="A1141" t="inlineStr">
         <is>
           <t>MID</t>
@@ -44960,32 +44962,71 @@
           <t>Mangesh N</t>
         </is>
       </c>
-      <c r="C1141" t="n">
+      <c r="C1141" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="D1141" t="n">
+      <c r="D1141" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="E1141" t="n">
+      <c r="E1141" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="F1141" t="n">
+      <c r="F1141" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="G1141" t="n">
+      <c r="G1141" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="H1141" t="n">
+      <c r="H1141" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="I1141" t="n">
-        <v>50</v>
-      </c>
-      <c r="J1141" t="n">
+      <c r="I1141" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1141" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="K1141" t="n">
+      <c r="K1141" s="4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>ATC</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Sumit N</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>167</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>98</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>99</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1142"/>
+  <dimension ref="A1:K1143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
       <selection activeCell="M1134" sqref="M1134"/>
@@ -45029,6 +45029,45 @@
         <v>45</v>
       </c>
     </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>ATC</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Pranit S</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>165</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>95</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>90</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>65</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
